--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3918796.994583205</v>
+        <v>3916251.808509919</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>101.3341794774131</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>28.11374845278244</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>6.28367916400425</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>271.439525616678</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.05665370612839</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>61.32905684098937</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>175.1820422378063</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>125.418938209067</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>95.95737520031371</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042239</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>68.17501931583914</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>567.286643657864</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>567.286643657864</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>567.286643657864</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>156.3007388682565</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240411</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261307</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3261428644631</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066831</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>466.9472898999326</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>81.15903730168839</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>74.21353655248491</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>60.29013249107582</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1112.283780524079</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>743.3212635836674</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>743.3212635836674</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>357.5330109854231</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>350.5875102362197</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>2012.8703329856</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2183.039358302559</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1875.888870760971</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1502.423112499891</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1112.283780524079</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>141.2628214977854</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>470.6912258035953</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2468558011349</v>
+        <v>975.0527656697138</v>
       </c>
       <c r="M9" t="n">
-        <v>1548.79220526824</v>
+        <v>1154.550102024319</v>
       </c>
       <c r="N9" t="n">
-        <v>1747.448946920904</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
-        <v>2296.884955673627</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>180.6287779911392</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T10" t="n">
-        <v>956.9510216632307</v>
+        <v>697.7705053114768</v>
       </c>
       <c r="U10" t="n">
-        <v>667.7988452409105</v>
+        <v>408.6183288891565</v>
       </c>
       <c r="V10" t="n">
-        <v>667.7988452409105</v>
+        <v>408.6183288891565</v>
       </c>
       <c r="W10" t="n">
-        <v>667.7988452409105</v>
+        <v>408.6183288891565</v>
       </c>
       <c r="X10" t="n">
-        <v>667.7988452409105</v>
+        <v>180.6287779911392</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.7988452409105</v>
+        <v>180.6287779911392</v>
       </c>
     </row>
     <row r="11">
@@ -5024,43 +5024,43 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5598,22 +5598,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,16 +5653,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K21" t="n">
-        <v>484.8243144841095</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>980.1499206998682</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
         <v>1344.266747951538</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6926,22 +6926,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7406,22 +7406,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>119.2902967703773</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>119.2902967703773</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703773</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969296</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876702</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597633</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597633</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597633</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597633</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746432</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000582</v>
@@ -7810,46 +7810,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.34034846144</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179099</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>159.7974209002381</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,25 +8529,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>94.43506344194954</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>271.7036563660312</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715149</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>72.11969353038472</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977561</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="G2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977555</v>
       </c>
-      <c r="I2" t="n">
-        <v>786967.9346977562</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.934697756</v>
-      </c>
       <c r="M2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977555</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080583</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.540033842204138e-10</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682727</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682762</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682757</v>
+        <v>5677.536566682723</v>
       </c>
       <c r="I4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="K4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="J4" t="n">
-        <v>5677.536566682747</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="L4" t="n">
-        <v>5677.536566682747</v>
-      </c>
       <c r="M4" t="n">
-        <v>5677.536566682757</v>
+        <v>5677.536566682737</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682764</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82233.6471233108</v>
+        <v>-82233.64712331092</v>
       </c>
       <c r="C6" t="n">
-        <v>507734.2320912337</v>
+        <v>507734.2320912335</v>
       </c>
       <c r="D6" t="n">
-        <v>351930.4259974389</v>
+        <v>351930.4259974385</v>
       </c>
       <c r="E6" t="n">
-        <v>-90884.82307364028</v>
+        <v>-90919.56099907597</v>
       </c>
       <c r="F6" t="n">
-        <v>680167.868307166</v>
+        <v>680133.1303817305</v>
       </c>
       <c r="G6" t="n">
-        <v>680167.8683071664</v>
+        <v>680133.1303817306</v>
       </c>
       <c r="H6" t="n">
-        <v>680167.8683071657</v>
+        <v>680133.1303817305</v>
       </c>
       <c r="I6" t="n">
-        <v>680167.8683071664</v>
+        <v>680133.1303817303</v>
       </c>
       <c r="J6" t="n">
-        <v>503744.6491145729</v>
+        <v>503709.9111891375</v>
       </c>
       <c r="K6" t="n">
-        <v>680167.8683071659</v>
+        <v>680133.1303817307</v>
       </c>
       <c r="L6" t="n">
-        <v>680167.8683071662</v>
+        <v>680133.13038173</v>
       </c>
       <c r="M6" t="n">
-        <v>555959.3575991075</v>
+        <v>555924.6196736718</v>
       </c>
       <c r="N6" t="n">
-        <v>680167.868307166</v>
+        <v>680133.1303817303</v>
       </c>
       <c r="O6" t="n">
-        <v>680167.868307166</v>
+        <v>680133.1303817302</v>
       </c>
       <c r="P6" t="n">
-        <v>680167.8683071653</v>
+        <v>680133.1303817299</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26799,7 +26799,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,13 +26993,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>312.4499905433819</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>56.5240607276603</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>128.0571403890127</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>317.6390936003529</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>77.80144310073501</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>162.0888852438905</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>320.6013132312724</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>237.7348617081305</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.82788288956084</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>127.415529520445</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,25 +32318,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983578</v>
       </c>
       <c r="K21" t="n">
-        <v>381.6404378718165</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,19 +33263,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>290.6810969936921</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>152.5685698206132</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445158004</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>653.3850396373771</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,43 +34436,43 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>150.7833302198366</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862125</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071789</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485292</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34530,31 +34530,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
         <v>0.1345549672467222</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>271.6502746876386</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>88.20185826002117</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>410.3194119374393</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="K21" t="n">
-        <v>243.7989988974575</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>159.3393849103587</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324671</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>510.7887951929326</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>23.94570355316989</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641942</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238456</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>
